--- a/milestones/summer24--sft221-nbb-2/Documents/Testing/Tests Documents/White Box Tests/white-box-test-cases.xlsx
+++ b/milestones/summer24--sft221-nbb-2/Documents/Testing/Tests Documents/White Box Tests/white-box-test-cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\SCHOOL\summer-2024\sft221-nbb\milestones\summer24--sft221-nbb-2\Documents\Testing\Tests Documents\White Box Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1960580-CAEA-48E8-83E9-E2AF3411941B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACD8E92-E63B-4D81-AEB4-70B2768409F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Declaration" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="calculateAvailableSpace" sheetId="7" r:id="rId3"/>
     <sheet name="isValidPoint" sheetId="8" r:id="rId4"/>
     <sheet name="distance" sheetId="4" r:id="rId5"/>
-    <sheet name="shortestPath" sheetId="5" r:id="rId6"/>
-    <sheet name="findTruckForShipment" sheetId="1" r:id="rId7"/>
+    <sheet name="findTruckForShipment" sheetId="1" r:id="rId6"/>
+    <sheet name="shortestPath" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -755,6 +755,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -806,6 +809,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -815,12 +824,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -829,9 +832,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1115,131 +1115,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4E6A22-79CF-4A1D-8AEB-A04025DEC7A9}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:9" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
-    </row>
-    <row r="3" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="25" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
+    </row>
+    <row r="3" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="28"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="12" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="29"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="21"/>
+      <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="12" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="12" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="12" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="12" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="12" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1266,76 +1266,76 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="47.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="47.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" style="2" customWidth="1"/>
     <col min="6" max="6" width="24" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="6" customWidth="1"/>
-    <col min="8" max="9" width="11.28515625" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="6.42578125" style="2"/>
+    <col min="7" max="7" width="20.88671875" style="6" customWidth="1"/>
+    <col min="8" max="9" width="11.33203125" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="6.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:10" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="34"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-    </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+    </row>
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>111</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>112</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>113</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>114</v>
       </c>
@@ -1451,19 +1451,19 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="G2:G3"/>
@@ -1486,79 +1486,79 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="47.28515625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="22.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="6" customWidth="1"/>
-    <col min="8" max="9" width="11.28515625" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="6.42578125" style="2"/>
+    <col min="1" max="1" width="13.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="47.33203125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="22.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" style="6" customWidth="1"/>
+    <col min="8" max="9" width="11.33203125" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="6.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:10" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="34"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-    </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+    </row>
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1586,8 +1586,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1615,8 +1615,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1644,8 +1644,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
         <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1673,22 +1673,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:J1"/>
@@ -1713,70 +1713,70 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="47.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="6" customWidth="1"/>
-    <col min="7" max="8" width="11.28515625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="6.42578125" style="2"/>
+    <col min="1" max="1" width="12.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="47.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" style="6" customWidth="1"/>
+    <col min="7" max="8" width="11.33203125" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="6.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="31"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="30" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-    </row>
-    <row r="4" spans="1:9" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="1:9" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>126</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>127</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>128</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>129</v>
       </c>
@@ -1880,22 +1880,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
     </row>
-    <row r="9" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:I1"/>
@@ -1919,74 +1919,74 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.44140625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="58.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="58.5546875" style="2" customWidth="1"/>
     <col min="5" max="6" width="19" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" style="6" customWidth="1"/>
     <col min="8" max="9" width="14" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="6.42578125" style="2"/>
+    <col min="10" max="16384" width="6.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="31"/>
-    </row>
-    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34"/>
+    </row>
+    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-    </row>
-    <row r="4" spans="1:9" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+    </row>
+    <row r="4" spans="1:9" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>105</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>106</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>107</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>108</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>109</v>
       </c>
@@ -2131,10 +2131,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:9" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:9" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:9" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:9" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:I1"/>
@@ -2153,6 +2153,250 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24" style="2" customWidth="1"/>
+    <col min="4" max="4" width="54" style="2" customWidth="1"/>
+    <col min="5" max="8" width="27.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="6" customWidth="1"/>
+    <col min="10" max="11" width="12.88671875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="15.109375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="34"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+    </row>
+    <row r="4" spans="1:11" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="9">
+        <v>3</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="9">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="9">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:11" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:11" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40543444-1F56-044E-95D2-8BD3ED5AEEC7}">
   <dimension ref="A1:J14"/>
   <sheetViews>
@@ -2160,66 +2404,66 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" style="5" customWidth="1"/>
-    <col min="6" max="7" width="32.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" style="5" customWidth="1"/>
+    <col min="6" max="7" width="32.5546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="26" style="2" customWidth="1"/>
-    <col min="9" max="10" width="12.42578125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="6.42578125" style="2"/>
+    <col min="9" max="10" width="12.44140625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="6.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:10" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-    </row>
-    <row r="2" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="34"/>
+    </row>
+    <row r="2" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="32" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+    <row r="3" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2229,11 +2473,11 @@
       <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-    </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+    </row>
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>59</v>
       </c>
@@ -2265,7 +2509,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>60</v>
       </c>
@@ -2297,7 +2541,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>61</v>
       </c>
@@ -2329,7 +2573,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>62</v>
       </c>
@@ -2361,25 +2605,25 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E14" s="3"/>
     </row>
   </sheetData>
@@ -2399,250 +2643,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24" style="2" customWidth="1"/>
-    <col min="4" max="4" width="54" style="2" customWidth="1"/>
-    <col min="5" max="8" width="27.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="6" customWidth="1"/>
-    <col min="10" max="11" width="12.85546875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="15.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-    </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="9">
-        <v>3</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="9">
-        <v>1</v>
-      </c>
-      <c r="J5" s="9">
-        <v>1</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="9">
-        <v>-1</v>
-      </c>
-      <c r="J6" s="9">
-        <v>-1</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="9">
-        <v>-1</v>
-      </c>
-      <c r="J7" s="9">
-        <v>-1</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:11" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:11" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:H2"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2653,6 +2653,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010005F15B28F3A9F34C9CE3CB4B37C40C84" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e8c8c2621d0a566110d18afec2953c8d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="33505ad1-6434-4d17-87c1-413dd10139de" xmlns:ns3="c20c8556-24cc-421e-aa4c-ebdb7d2cdb1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="91c8afe27044be736d649d52aac2a536" ns2:_="" ns3:_="">
     <xsd:import namespace="33505ad1-6434-4d17-87c1-413dd10139de"/>
@@ -2853,12 +2859,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F95A9E1-C126-4761-B605-F7F93C5B6CFB}">
   <ds:schemaRefs>
@@ -2868,6 +2868,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90B3EE6F-1B3E-4CA3-9F86-1519C65464D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="c20c8556-24cc-421e-aa4c-ebdb7d2cdb1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="33505ad1-6434-4d17-87c1-413dd10139de"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F53E2559-C623-4E5D-90A4-D51F80761861}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2884,21 +2901,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90B3EE6F-1B3E-4CA3-9F86-1519C65464D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="c20c8556-24cc-421e-aa4c-ebdb7d2cdb1a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="33505ad1-6434-4d17-87c1-413dd10139de"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/milestones/summer24--sft221-nbb-2/Documents/Testing/Tests Documents/White Box Tests/white-box-test-cases.xlsx
+++ b/milestones/summer24--sft221-nbb-2/Documents/Testing/Tests Documents/White Box Tests/white-box-test-cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\SCHOOL\summer-2024\sft221-nbb\milestones\summer24--sft221-nbb-2\Documents\Testing\Tests Documents\White Box Tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\SCHOOL\summer-2024\summer24--sft221-nbb-2\Documents\Testing\Tests Documents\White Box Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACD8E92-E63B-4D81-AEB4-70B2768409F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3737C04-F7A6-4C65-8C16-0D4F40DCE68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Declaration" sheetId="2" r:id="rId1"/>
@@ -1115,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4E6A22-79CF-4A1D-8AEB-A04025DEC7A9}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2156,7 +2156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2644,21 +2644,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010005F15B28F3A9F34C9CE3CB4B37C40C84" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e8c8c2621d0a566110d18afec2953c8d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="33505ad1-6434-4d17-87c1-413dd10139de" xmlns:ns3="c20c8556-24cc-421e-aa4c-ebdb7d2cdb1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="91c8afe27044be736d649d52aac2a536" ns2:_="" ns3:_="">
     <xsd:import namespace="33505ad1-6434-4d17-87c1-413dd10139de"/>
@@ -2859,10 +2844,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F95A9E1-C126-4761-B605-F7F93C5B6CFB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F53E2559-C623-4E5D-90A4-D51F80761861}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="33505ad1-6434-4d17-87c1-413dd10139de"/>
+    <ds:schemaRef ds:uri="c20c8556-24cc-421e-aa4c-ebdb7d2cdb1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2885,20 +2896,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F53E2559-C623-4E5D-90A4-D51F80761861}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F95A9E1-C126-4761-B605-F7F93C5B6CFB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="33505ad1-6434-4d17-87c1-413dd10139de"/>
-    <ds:schemaRef ds:uri="c20c8556-24cc-421e-aa4c-ebdb7d2cdb1a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/milestones/summer24--sft221-nbb-2/Documents/Testing/Tests Documents/White Box Tests/white-box-test-cases.xlsx
+++ b/milestones/summer24--sft221-nbb-2/Documents/Testing/Tests Documents/White Box Tests/white-box-test-cases.xlsx
@@ -5,20 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\SCHOOL\summer-2024\summer24--sft221-nbb-2\Documents\Testing\Tests Documents\White Box Tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SFT221\summer24--sft221-nbb-2\Documents\Testing\Tests Documents\White Box Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3737C04-F7A6-4C65-8C16-0D4F40DCE68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F216AEC7-C363-4CF6-A4A7-7F4BE309F572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Declaration" sheetId="2" r:id="rId1"/>
-    <sheet name="isValidDestination" sheetId="6" r:id="rId2"/>
-    <sheet name="calculateAvailableSpace" sheetId="7" r:id="rId3"/>
+    <sheet name="calculateAvailableSpace" sheetId="7" r:id="rId2"/>
+    <sheet name="isValidDestination" sheetId="6" r:id="rId3"/>
     <sheet name="isValidPoint" sheetId="8" r:id="rId4"/>
-    <sheet name="distance" sheetId="4" r:id="rId5"/>
-    <sheet name="findTruckForShipment" sheetId="1" r:id="rId6"/>
+    <sheet name="findTruckForShipment" sheetId="1" r:id="rId5"/>
+    <sheet name="distance" sheetId="4" r:id="rId6"/>
     <sheet name="shortestPath" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -1115,16 +1115,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4E6A22-79CF-4A1D-8AEB-A04025DEC7A9}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1137,7 +1137,7 @@
       <c r="H1" s="24"/>
       <c r="I1" s="25"/>
     </row>
-    <row r="3" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
@@ -1150,7 +1150,7 @@
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
         <v>13</v>
       </c>
@@ -1165,7 +1165,7 @@
       <c r="H5" s="28"/>
       <c r="I5" s="29"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="21"/>
       <c r="B6" s="13" t="s">
         <v>15</v>
@@ -1178,7 +1178,7 @@
       <c r="H6" s="13"/>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="21"/>
       <c r="B7" s="13" t="s">
         <v>16</v>
@@ -1191,7 +1191,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="21"/>
       <c r="B8" s="13" t="s">
         <v>17</v>
@@ -1204,7 +1204,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="21"/>
       <c r="B9" s="13" t="s">
         <v>18</v>
@@ -1217,7 +1217,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="22"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -1228,7 +1228,7 @@
       <c r="H10" s="15"/>
       <c r="I10" s="16"/>
     </row>
-    <row r="12" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
         <v>2</v>
       </c>
@@ -1259,29 +1259,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A628785-1246-498A-9295-C06BCB9FB1F5}">
-  <dimension ref="A1:J20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA9E19C-C91D-47D4-9FDD-BC5C70A516D1}">
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="47.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" style="6" customWidth="1"/>
-    <col min="8" max="9" width="11.33203125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="6.44140625" style="2"/>
+    <col min="1" max="1" width="13.08984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.90625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="47.36328125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="22.90625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.90625" style="6" customWidth="1"/>
+    <col min="8" max="9" width="11.36328125" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="6.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -1293,7 +1292,7 @@
       <c r="I1" s="33"/>
       <c r="J1" s="34"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="30" t="s">
         <v>3</v>
       </c>
@@ -1309,7 +1308,7 @@
       <c r="E2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="36"/>
+      <c r="F2" s="37"/>
       <c r="G2" s="30" t="s">
         <v>7</v>
       </c>
@@ -1320,7 +1319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -1335,7 +1334,232 @@
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
     </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="17" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="18" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="21" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A628785-1246-498A-9295-C06BCB9FB1F5}">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.36328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.90625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="47.36328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.90625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.90625" style="6" customWidth="1"/>
+    <col min="8" max="9" width="11.36328125" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="6.453125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="34"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="36"/>
+      <c r="G2" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+    </row>
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>111</v>
       </c>
@@ -1364,7 +1588,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>112</v>
       </c>
@@ -1393,7 +1617,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>113</v>
       </c>
@@ -1422,7 +1646,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>114</v>
       </c>
@@ -1451,19 +1675,19 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="17" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="18" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="G2:G3"/>
@@ -1481,251 +1705,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA9E19C-C91D-47D4-9FDD-BC5C70A516D1}">
-  <dimension ref="A1:J21"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="47.33203125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="22.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" style="6" customWidth="1"/>
-    <col min="8" max="9" width="11.33203125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="6.44140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="34"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-    </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA18F98-97A9-46F5-9E7C-D8E2952DE610}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="47.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.88671875" style="6" customWidth="1"/>
-    <col min="7" max="8" width="11.33203125" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="6.44140625" style="2"/>
+    <col min="1" max="1" width="12.54296875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.90625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="47.36328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.08984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.90625" style="6" customWidth="1"/>
+    <col min="7" max="8" width="11.36328125" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="6.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
         <v>44</v>
       </c>
@@ -1738,7 +1738,7 @@
       <c r="H1" s="33"/>
       <c r="I1" s="34"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="30" t="s">
         <v>3</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -1776,7 +1776,7 @@
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
     </row>
-    <row r="4" spans="1:9" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="9" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>126</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="9" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>127</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="9" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>128</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="9" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>129</v>
       </c>
@@ -1880,22 +1880,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
     </row>
-    <row r="9" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="17" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="18" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="21" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:I1"/>
@@ -1912,26 +1912,270 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.08984375" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.36328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24" style="2" customWidth="1"/>
+    <col min="4" max="4" width="54" style="2" customWidth="1"/>
+    <col min="5" max="8" width="27.08984375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.90625" style="6" customWidth="1"/>
+    <col min="10" max="11" width="12.90625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="15.08984375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="34"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+    </row>
+    <row r="4" spans="1:11" s="9" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="9">
+        <v>3</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="9" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="9" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="9">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="9" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="9">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:11" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:11" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B164E6-1E38-0940-AB13-E6AE19A61BB4}">
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A4" sqref="A4:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.44140625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.453125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="58.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.08984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="58.54296875" style="2" customWidth="1"/>
     <col min="5" max="6" width="19" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="22.453125" style="6" customWidth="1"/>
     <col min="8" max="9" width="14" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="6.44140625" style="2"/>
+    <col min="10" max="16384" width="6.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
         <v>40</v>
       </c>
@@ -1944,7 +2188,7 @@
       <c r="H1" s="33"/>
       <c r="I1" s="34"/>
     </row>
-    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30" t="s">
         <v>3</v>
       </c>
@@ -1971,7 +2215,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -1986,7 +2230,7 @@
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
     </row>
-    <row r="4" spans="1:9" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>105</v>
       </c>
@@ -2015,7 +2259,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>106</v>
       </c>
@@ -2044,7 +2288,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>107</v>
       </c>
@@ -2073,7 +2317,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>108</v>
       </c>
@@ -2102,7 +2346,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>109</v>
       </c>
@@ -2131,10 +2375,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:9" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:9" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:9" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:9" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:9" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:9" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:9" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:I1"/>
@@ -2152,29 +2396,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40543444-1F56-044E-95D2-8BD3ED5AEEC7}">
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24" style="2" customWidth="1"/>
-    <col min="4" max="4" width="54" style="2" customWidth="1"/>
-    <col min="5" max="8" width="27.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="6" customWidth="1"/>
-    <col min="10" max="11" width="12.88671875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="15.109375" style="2"/>
+    <col min="1" max="1" width="12.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.54296875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="54.6328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.54296875" style="5" customWidth="1"/>
+    <col min="6" max="7" width="32.54296875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="26" style="2" customWidth="1"/>
+    <col min="9" max="10" width="12.453125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="6.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -2186,252 +2431,7 @@
       <c r="I1" s="33"/>
       <c r="J1" s="34"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-    </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="9">
-        <v>3</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="9">
-        <v>1</v>
-      </c>
-      <c r="J5" s="9">
-        <v>1</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="9">
-        <v>-1</v>
-      </c>
-      <c r="J6" s="9">
-        <v>-1</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="9">
-        <v>-1</v>
-      </c>
-      <c r="J7" s="9">
-        <v>-1</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:11" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:11" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:H2"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40543444-1F56-044E-95D2-8BD3ED5AEEC7}">
-  <dimension ref="A1:J14"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="54.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.5546875" style="5" customWidth="1"/>
-    <col min="6" max="7" width="32.5546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="26" style="2" customWidth="1"/>
-    <col min="9" max="10" width="12.44140625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="6.44140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="34"/>
-    </row>
-    <row r="2" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30" t="s">
         <v>3</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -2477,7 +2477,7 @@
       <c r="I3" s="31"/>
       <c r="J3" s="31"/>
     </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>59</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>60</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>61</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>62</v>
       </c>
@@ -2605,25 +2605,25 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E14" s="3"/>
     </row>
   </sheetData>
@@ -2644,6 +2644,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010005F15B28F3A9F34C9CE3CB4B37C40C84" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e8c8c2621d0a566110d18afec2953c8d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="33505ad1-6434-4d17-87c1-413dd10139de" xmlns:ns3="c20c8556-24cc-421e-aa4c-ebdb7d2cdb1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="91c8afe27044be736d649d52aac2a536" ns2:_="" ns3:_="">
     <xsd:import namespace="33505ad1-6434-4d17-87c1-413dd10139de"/>
@@ -2844,12 +2850,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2860,6 +2860,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90B3EE6F-1B3E-4CA3-9F86-1519C65464D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="c20c8556-24cc-421e-aa4c-ebdb7d2cdb1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="33505ad1-6434-4d17-87c1-413dd10139de"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F53E2559-C623-4E5D-90A4-D51F80761861}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2878,23 +2895,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90B3EE6F-1B3E-4CA3-9F86-1519C65464D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="c20c8556-24cc-421e-aa4c-ebdb7d2cdb1a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="33505ad1-6434-4d17-87c1-413dd10139de"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F95A9E1-C126-4761-B605-F7F93C5B6CFB}">
   <ds:schemaRefs>
